--- a/KeHoachLV.xlsx
+++ b/KeHoachLV.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>Ngày</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>21 pbc</t>
+  </si>
+  <si>
+    <t>rggrrt</t>
   </si>
 </sst>
 </file>
@@ -898,7 +901,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -975,8 +978,12 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34545</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
